--- a/Sections.xlsx
+++ b/Sections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25820" yWindow="-2120" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="36180" yWindow="-2120" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,9 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
